--- a/pdfs_downscaleddata/bottom thetao_thresholds.xlsx
+++ b/pdfs_downscaleddata/bottom thetao_thresholds.xlsx
@@ -496,16 +496,16 @@
         <v>7.2490473528899</v>
       </c>
       <c r="D2" t="n">
-        <v>9.117636020952192</v>
+        <v>9.1131411301072</v>
       </c>
       <c r="E2" t="n">
-        <v>7.319917502948265</v>
+        <v>7.264383834843784</v>
       </c>
       <c r="F2" t="n">
-        <v>10.06084520069863</v>
+        <v>9.904341455780914</v>
       </c>
       <c r="G2" t="n">
-        <v>7.945522167707251</v>
+        <v>7.792725627883438</v>
       </c>
       <c r="H2" t="n">
         <v>9.117636020952192</v>
